--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.743911</v>
+        <v>2.5030855</v>
       </c>
       <c r="N2">
-        <v>3.487822</v>
+        <v>5.006171</v>
       </c>
       <c r="O2">
-        <v>0.01143028478536475</v>
+        <v>0.0157836604596468</v>
       </c>
       <c r="P2">
-        <v>0.007740067166750972</v>
+        <v>0.01076388312237861</v>
       </c>
       <c r="Q2">
-        <v>55.186904160102</v>
+        <v>55.20482856233325</v>
       </c>
       <c r="R2">
-        <v>220.747616640408</v>
+        <v>220.819314249333</v>
       </c>
       <c r="S2">
-        <v>0.0004064587239746332</v>
+        <v>0.0001734526105677998</v>
       </c>
       <c r="T2">
-        <v>0.0001895125578531517</v>
+        <v>8.025806088080996E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.992690666666667</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N3">
         <v>14.978072</v>
       </c>
       <c r="O3">
-        <v>0.03272407603669718</v>
+        <v>0.03148231822792881</v>
       </c>
       <c r="P3">
-        <v>0.03323887609758527</v>
+        <v>0.03220469624520848</v>
       </c>
       <c r="Q3">
-        <v>157.996102623568</v>
+        <v>110.112352262076</v>
       </c>
       <c r="R3">
-        <v>947.9766157414081</v>
+        <v>660.674113572456</v>
       </c>
       <c r="S3">
-        <v>0.001163661836856006</v>
+        <v>0.0003459710944315814</v>
       </c>
       <c r="T3">
-        <v>0.000813841055084999</v>
+        <v>0.000240125839579422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.43047966666666</v>
+        <v>69.75780233333334</v>
       </c>
       <c r="N4">
-        <v>181.291439</v>
+        <v>209.273407</v>
       </c>
       <c r="O4">
-        <v>0.3960853462740898</v>
+        <v>0.4398704984070624</v>
       </c>
       <c r="P4">
-        <v>0.4023163781342444</v>
+        <v>0.4499635536960222</v>
       </c>
       <c r="Q4">
-        <v>1912.351656542866</v>
+        <v>1538.488205335694</v>
       </c>
       <c r="R4">
-        <v>11474.1099392572</v>
+        <v>9230.929232014161</v>
       </c>
       <c r="S4">
-        <v>0.01408471857479444</v>
+        <v>0.00483390316558872</v>
       </c>
       <c r="T4">
-        <v>0.00985056127341608</v>
+        <v>0.00335503478401767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.3450205</v>
+        <v>8.168637</v>
       </c>
       <c r="N5">
-        <v>10.690041</v>
+        <v>16.337274</v>
       </c>
       <c r="O5">
-        <v>0.03503338559055635</v>
+        <v>0.0515088249387038</v>
       </c>
       <c r="P5">
-        <v>0.02372300976234502</v>
+        <v>0.0351271476492263</v>
       </c>
       <c r="Q5">
-        <v>169.145750022381</v>
+        <v>180.1569323832255</v>
       </c>
       <c r="R5">
-        <v>676.583000089524</v>
+        <v>720.627729532902</v>
       </c>
       <c r="S5">
-        <v>0.001245780439511108</v>
+        <v>0.000566049946128776</v>
       </c>
       <c r="T5">
-        <v>0.0005808487398339318</v>
+        <v>0.0002619163291302822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.412457333333333</v>
+        <v>26.63589933333333</v>
       </c>
       <c r="N6">
-        <v>4.237372000000001</v>
+        <v>79.907698</v>
       </c>
       <c r="O6">
-        <v>0.009257805912788483</v>
+        <v>0.1679575032952993</v>
       </c>
       <c r="P6">
-        <v>0.009403445442602834</v>
+        <v>0.1718113747713226</v>
       </c>
       <c r="Q6">
-        <v>44.697893117768</v>
+        <v>587.4470753397089</v>
       </c>
       <c r="R6">
-        <v>268.1873587066081</v>
+        <v>3524.682452038254</v>
       </c>
       <c r="S6">
-        <v>0.0003292057939741649</v>
+        <v>0.001845748486892591</v>
       </c>
       <c r="T6">
-        <v>0.0002302397330756344</v>
+        <v>0.001281066286175477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>78.64478033333334</v>
+        <v>46.52902066666667</v>
       </c>
       <c r="N7">
-        <v>235.934341</v>
+        <v>139.587062</v>
       </c>
       <c r="O7">
-        <v>0.5154691014005035</v>
+        <v>0.2933971946713588</v>
       </c>
       <c r="P7">
-        <v>0.5235782233964714</v>
+        <v>0.3001293445158418</v>
       </c>
       <c r="Q7">
-        <v>2488.751980432454</v>
+        <v>1026.184127180871</v>
       </c>
       <c r="R7">
-        <v>14932.51188259473</v>
+        <v>6157.104763085226</v>
       </c>
       <c r="S7">
-        <v>0.0183299818979019</v>
+        <v>0.003224252668075638</v>
       </c>
       <c r="T7">
-        <v>0.01281961076233469</v>
+        <v>0.002237835447524544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.743911</v>
+        <v>2.5030855</v>
       </c>
       <c r="N8">
-        <v>3.487822</v>
+        <v>5.006171</v>
       </c>
       <c r="O8">
-        <v>0.01143028478536475</v>
+        <v>0.0157836604596468</v>
       </c>
       <c r="P8">
-        <v>0.007740067166750972</v>
+        <v>0.01076388312237861</v>
       </c>
       <c r="Q8">
-        <v>145.1412545121804</v>
+        <v>208.3254074441002</v>
       </c>
       <c r="R8">
-        <v>870.847527073082</v>
+        <v>1249.952444664601</v>
       </c>
       <c r="S8">
-        <v>0.001068984209260077</v>
+        <v>0.0006545548045308972</v>
       </c>
       <c r="T8">
-        <v>0.0007476254777624698</v>
+        <v>0.0004543024678028672</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.992690666666667</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N9">
         <v>14.978072</v>
       </c>
       <c r="O9">
-        <v>0.03272407603669718</v>
+        <v>0.03148231822792881</v>
       </c>
       <c r="P9">
-        <v>0.03323887609758527</v>
+        <v>0.03220469624520848</v>
       </c>
       <c r="Q9">
-        <v>415.5288812050925</v>
+        <v>415.5288812050924</v>
       </c>
       <c r="R9">
-        <v>3739.759930845833</v>
+        <v>3739.759930845832</v>
       </c>
       <c r="S9">
-        <v>0.003060424232880482</v>
+        <v>0.001305584512955404</v>
       </c>
       <c r="T9">
-        <v>0.003210596250313425</v>
+        <v>0.001359237443652849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.43047966666666</v>
+        <v>69.75780233333334</v>
       </c>
       <c r="N10">
-        <v>181.291439</v>
+        <v>209.273407</v>
       </c>
       <c r="O10">
-        <v>0.3960853462740898</v>
+        <v>0.4398704984070624</v>
       </c>
       <c r="P10">
-        <v>0.4023163781342444</v>
+        <v>0.4499635536960222</v>
       </c>
       <c r="Q10">
-        <v>5029.474342207145</v>
+        <v>5805.76356400797</v>
       </c>
       <c r="R10">
-        <v>45265.26907986431</v>
+        <v>52251.87207607173</v>
       </c>
       <c r="S10">
-        <v>0.03704273241104553</v>
+        <v>0.01824160807563304</v>
       </c>
       <c r="T10">
-        <v>0.03886038298302512</v>
+        <v>0.01899124605324385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.3450205</v>
+        <v>8.168637</v>
       </c>
       <c r="N11">
-        <v>10.690041</v>
+        <v>16.337274</v>
       </c>
       <c r="O11">
-        <v>0.03503338559055635</v>
+        <v>0.0515088249387038</v>
       </c>
       <c r="P11">
-        <v>0.02372300976234502</v>
+        <v>0.0351271476492263</v>
       </c>
       <c r="Q11">
-        <v>444.8523925609286</v>
+        <v>679.8547757509491</v>
       </c>
       <c r="R11">
-        <v>2669.114355365571</v>
+        <v>4079.128654505694</v>
       </c>
       <c r="S11">
-        <v>0.003276395706358525</v>
+        <v>0.002136091873337469</v>
       </c>
       <c r="T11">
-        <v>0.002291443488207079</v>
+        <v>0.001482582975166374</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.412457333333333</v>
+        <v>26.63589933333333</v>
       </c>
       <c r="N12">
-        <v>4.237372000000001</v>
+        <v>79.907698</v>
       </c>
       <c r="O12">
-        <v>0.009257805912788483</v>
+        <v>0.1679575032952993</v>
       </c>
       <c r="P12">
-        <v>0.009403445442602834</v>
+        <v>0.1718113747713226</v>
       </c>
       <c r="Q12">
-        <v>117.5552131415702</v>
+        <v>2216.837811276004</v>
       </c>
       <c r="R12">
-        <v>1057.996918274132</v>
+        <v>19951.54030148404</v>
       </c>
       <c r="S12">
-        <v>0.0008658094281112571</v>
+        <v>0.006965265821576872</v>
       </c>
       <c r="T12">
-        <v>0.0009082938481256533</v>
+        <v>0.007251503074474729</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>78.64478033333334</v>
+        <v>46.52902066666667</v>
       </c>
       <c r="N13">
-        <v>235.934341</v>
+        <v>139.587062</v>
       </c>
       <c r="O13">
-        <v>0.5154691014005035</v>
+        <v>0.2933971946713588</v>
       </c>
       <c r="P13">
-        <v>0.5235782233964714</v>
+        <v>0.3001293445158418</v>
       </c>
       <c r="Q13">
-        <v>6545.404024869876</v>
+        <v>3872.491446400169</v>
       </c>
       <c r="R13">
-        <v>58908.63622382888</v>
+        <v>34852.42301760153</v>
       </c>
       <c r="S13">
-        <v>0.048207751609492</v>
+        <v>0.0121673007284346</v>
       </c>
       <c r="T13">
-        <v>0.05057325873014691</v>
+        <v>0.01266731534738862</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.743911</v>
+        <v>2.5030855</v>
       </c>
       <c r="N14">
-        <v>3.487822</v>
+        <v>5.006171</v>
       </c>
       <c r="O14">
-        <v>0.01143028478536475</v>
+        <v>0.0157836604596468</v>
       </c>
       <c r="P14">
-        <v>0.007740067166750972</v>
+        <v>0.01076388312237861</v>
       </c>
       <c r="Q14">
-        <v>914.8154070728791</v>
+        <v>2332.013722642859</v>
       </c>
       <c r="R14">
-        <v>5488.892442437274</v>
+        <v>13992.08233585715</v>
       </c>
       <c r="S14">
-        <v>0.006737734408011949</v>
+        <v>0.00732714653059038</v>
       </c>
       <c r="T14">
-        <v>0.004712232287615599</v>
+        <v>0.005085503502164422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.992690666666667</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N15">
         <v>14.978072</v>
       </c>
       <c r="O15">
-        <v>0.03272407603669718</v>
+        <v>0.03148231822792881</v>
       </c>
       <c r="P15">
-        <v>0.03323887609758527</v>
+        <v>0.03220469624520848</v>
       </c>
       <c r="Q15">
-        <v>2619.050137659337</v>
+        <v>4651.46841671113</v>
       </c>
       <c r="R15">
-        <v>23571.45123893403</v>
+        <v>41863.21575040017</v>
       </c>
       <c r="S15">
-        <v>0.01928964476590843</v>
+        <v>0.01461483281197452</v>
       </c>
       <c r="T15">
-        <v>0.02023616872782818</v>
+        <v>0.0152154286403063</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.43047966666666</v>
+        <v>69.75780233333334</v>
       </c>
       <c r="N16">
-        <v>181.291439</v>
+        <v>209.273407</v>
       </c>
       <c r="O16">
-        <v>0.3960853462740898</v>
+        <v>0.4398704984070624</v>
       </c>
       <c r="P16">
-        <v>0.4023163781342444</v>
+        <v>0.4499635536960222</v>
       </c>
       <c r="Q16">
-        <v>31700.43302431776</v>
+        <v>64990.24995460258</v>
       </c>
       <c r="R16">
-        <v>285303.8972188598</v>
+        <v>584912.2495914232</v>
       </c>
       <c r="S16">
-        <v>0.2334778105893973</v>
+        <v>0.2041982342785706</v>
       </c>
       <c r="T16">
-        <v>0.2449343379117666</v>
+        <v>0.2125897505715207</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.3450205</v>
+        <v>8.168637</v>
       </c>
       <c r="N17">
-        <v>10.690041</v>
+        <v>16.337274</v>
       </c>
       <c r="O17">
-        <v>0.03503338559055635</v>
+        <v>0.0515088249387038</v>
       </c>
       <c r="P17">
-        <v>0.02372300976234502</v>
+        <v>0.0351271476492263</v>
       </c>
       <c r="Q17">
-        <v>2803.874225531225</v>
+        <v>7610.356729439803</v>
       </c>
       <c r="R17">
-        <v>16823.24535318735</v>
+        <v>45662.14037663882</v>
       </c>
       <c r="S17">
-        <v>0.0206508982020179</v>
+        <v>0.02391160839460027</v>
       </c>
       <c r="T17">
-        <v>0.01444281169054342</v>
+        <v>0.01659616983575267</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.412457333333333</v>
+        <v>26.63589933333333</v>
       </c>
       <c r="N18">
-        <v>4.237372000000001</v>
+        <v>79.907698</v>
       </c>
       <c r="O18">
-        <v>0.009257805912788483</v>
+        <v>0.1679575032952993</v>
       </c>
       <c r="P18">
-        <v>0.009403445442602834</v>
+        <v>0.1718113747713226</v>
       </c>
       <c r="Q18">
-        <v>740.9424737652362</v>
+        <v>24815.48583149361</v>
       </c>
       <c r="R18">
-        <v>6668.482263887125</v>
+        <v>223339.3724834425</v>
       </c>
       <c r="S18">
-        <v>0.005457137649024981</v>
+        <v>0.07796982459823604</v>
       </c>
       <c r="T18">
-        <v>0.005724914044649723</v>
+        <v>0.08117399066649879</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>78.64478033333334</v>
+        <v>46.52902066666667</v>
       </c>
       <c r="N19">
-        <v>235.934341</v>
+        <v>139.587062</v>
       </c>
       <c r="O19">
-        <v>0.5154691014005035</v>
+        <v>0.2933971946713588</v>
       </c>
       <c r="P19">
-        <v>0.5235782233964714</v>
+        <v>0.3001293445158418</v>
       </c>
       <c r="Q19">
-        <v>41255.23420334839</v>
+        <v>43349.02451226689</v>
       </c>
       <c r="R19">
-        <v>371297.1078301355</v>
+        <v>390141.2206104021</v>
       </c>
       <c r="S19">
-        <v>0.3038501634902478</v>
+        <v>0.1362018805788036</v>
       </c>
       <c r="T19">
-        <v>0.3187597931940073</v>
+        <v>0.1417990900945737</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.743911</v>
+        <v>2.5030855</v>
       </c>
       <c r="N20">
-        <v>3.487822</v>
+        <v>5.006171</v>
       </c>
       <c r="O20">
-        <v>0.01143028478536475</v>
+        <v>0.0157836604596468</v>
       </c>
       <c r="P20">
-        <v>0.007740067166750972</v>
+        <v>0.01076388312237861</v>
       </c>
       <c r="Q20">
-        <v>92.76706225946249</v>
+        <v>207.5181006275745</v>
       </c>
       <c r="R20">
-        <v>371.06824903785</v>
+        <v>830.072402510298</v>
       </c>
       <c r="S20">
-        <v>0.0006832414741632934</v>
+        <v>0.0006520182605635982</v>
       </c>
       <c r="T20">
-        <v>0.0003185633171650775</v>
+        <v>0.0003016946304838592</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.992690666666667</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N21">
         <v>14.978072</v>
       </c>
       <c r="O21">
-        <v>0.03272407603669718</v>
+        <v>0.03148231822792881</v>
       </c>
       <c r="P21">
-        <v>0.03323887609758527</v>
+        <v>0.03220469624520848</v>
       </c>
       <c r="Q21">
-        <v>265.5853687011</v>
+        <v>413.918615312056</v>
       </c>
       <c r="R21">
-        <v>1593.5122122066</v>
+        <v>2483.511691872336</v>
       </c>
       <c r="S21">
-        <v>0.001956070769170359</v>
+        <v>0.001300525085544266</v>
       </c>
       <c r="T21">
-        <v>0.001368035496380655</v>
+        <v>0.0009026467328824037</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.43047966666666</v>
+        <v>69.75780233333334</v>
       </c>
       <c r="N22">
-        <v>181.291439</v>
+        <v>209.273407</v>
       </c>
       <c r="O22">
-        <v>0.3960853462740898</v>
+        <v>0.4398704984070624</v>
       </c>
       <c r="P22">
-        <v>0.4023163781342444</v>
+        <v>0.4499635536960222</v>
       </c>
       <c r="Q22">
-        <v>3214.589545915387</v>
+        <v>5783.264952063012</v>
       </c>
       <c r="R22">
-        <v>19287.53727549232</v>
+        <v>34699.58971237807</v>
       </c>
       <c r="S22">
-        <v>0.02367586993364241</v>
+        <v>0.01817091782846384</v>
       </c>
       <c r="T22">
-        <v>0.01655841444358981</v>
+        <v>0.01261176719591945</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.3450205</v>
+        <v>8.168637</v>
       </c>
       <c r="N23">
-        <v>10.690041</v>
+        <v>16.337274</v>
       </c>
       <c r="O23">
-        <v>0.03503338559055635</v>
+        <v>0.0515088249387038</v>
       </c>
       <c r="P23">
-        <v>0.02372300976234502</v>
+        <v>0.0351271476492263</v>
       </c>
       <c r="Q23">
-        <v>284.3274969316687</v>
+        <v>677.2201888254031</v>
       </c>
       <c r="R23">
-        <v>1137.309987726675</v>
+        <v>2708.880755301612</v>
       </c>
       <c r="S23">
-        <v>0.002094108980247859</v>
+        <v>0.002127814047069287</v>
       </c>
       <c r="T23">
-        <v>0.0009763843801635183</v>
+        <v>0.0009845584264987271</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.412457333333333</v>
+        <v>26.63589933333333</v>
       </c>
       <c r="N24">
-        <v>4.237372000000001</v>
+        <v>79.907698</v>
       </c>
       <c r="O24">
-        <v>0.009257805912788483</v>
+        <v>0.1679575032952993</v>
       </c>
       <c r="P24">
-        <v>0.009403445442602834</v>
+        <v>0.1718113747713226</v>
       </c>
       <c r="Q24">
-        <v>75.13543832235</v>
+        <v>2208.247076722154</v>
       </c>
       <c r="R24">
-        <v>450.8126299341001</v>
+        <v>13249.48246033293</v>
       </c>
       <c r="S24">
-        <v>0.0005533822715834817</v>
+        <v>0.006938273883120296</v>
       </c>
       <c r="T24">
-        <v>0.0003870241315016704</v>
+        <v>0.00481560126909884</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>78.64478033333334</v>
+        <v>46.52902066666667</v>
       </c>
       <c r="N25">
-        <v>235.934341</v>
+        <v>139.587062</v>
       </c>
       <c r="O25">
-        <v>0.5154691014005035</v>
+        <v>0.2933971946713588</v>
       </c>
       <c r="P25">
-        <v>0.5235782233964714</v>
+        <v>0.3001293445158418</v>
       </c>
       <c r="Q25">
-        <v>4183.496310054863</v>
+        <v>3857.484689519326</v>
       </c>
       <c r="R25">
-        <v>25100.97786032918</v>
+        <v>23144.90813711596</v>
       </c>
       <c r="S25">
-        <v>0.03081199421885352</v>
+        <v>0.01212014975948992</v>
       </c>
       <c r="T25">
-        <v>0.02154927238319976</v>
+        <v>0.008412151141145106</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.743911</v>
+        <v>2.5030855</v>
       </c>
       <c r="N26">
-        <v>3.487822</v>
+        <v>5.006171</v>
       </c>
       <c r="O26">
-        <v>0.01143028478536475</v>
+        <v>0.0157836604596468</v>
       </c>
       <c r="P26">
-        <v>0.007740067166750972</v>
+        <v>0.01076388312237861</v>
       </c>
       <c r="Q26">
-        <v>27.54816852441767</v>
+        <v>875.5917799406848</v>
       </c>
       <c r="R26">
-        <v>165.289011146506</v>
+        <v>5253.550679644109</v>
       </c>
       <c r="S26">
-        <v>0.0002028958427127734</v>
+        <v>0.002751094133929492</v>
       </c>
       <c r="T26">
-        <v>0.0001419011618975664</v>
+        <v>0.001909433473791213</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.992690666666667</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N27">
         <v>14.978072</v>
       </c>
       <c r="O27">
-        <v>0.03272407603669718</v>
+        <v>0.03148231822792881</v>
       </c>
       <c r="P27">
-        <v>0.03323887609758527</v>
+        <v>0.03220469624520848</v>
       </c>
       <c r="Q27">
-        <v>78.8684077774729</v>
+        <v>1746.468072113362</v>
       </c>
       <c r="R27">
-        <v>709.8156699972561</v>
+        <v>15718.21264902026</v>
       </c>
       <c r="S27">
-        <v>0.0005808760769428784</v>
+        <v>0.005487372287359417</v>
       </c>
       <c r="T27">
-        <v>0.0006093790966928375</v>
+        <v>0.005712875578891512</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.43047966666666</v>
+        <v>69.75780233333334</v>
       </c>
       <c r="N28">
-        <v>181.291439</v>
+        <v>209.273407</v>
       </c>
       <c r="O28">
-        <v>0.3960853462740898</v>
+        <v>0.4398704984070624</v>
       </c>
       <c r="P28">
-        <v>0.4023163781342444</v>
+        <v>0.4499635536960222</v>
       </c>
       <c r="Q28">
-        <v>954.6066501494219</v>
+        <v>24401.62683607643</v>
       </c>
       <c r="R28">
-        <v>8591.459851344798</v>
+        <v>219614.6415246879</v>
       </c>
       <c r="S28">
-        <v>0.007030802086520157</v>
+        <v>0.07666948683736387</v>
       </c>
       <c r="T28">
-        <v>0.007375796653665749</v>
+        <v>0.07982021558994537</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.3450205</v>
+        <v>8.168637</v>
       </c>
       <c r="N29">
-        <v>10.690041</v>
+        <v>16.337274</v>
       </c>
       <c r="O29">
-        <v>0.03503338559055635</v>
+        <v>0.0515088249387038</v>
       </c>
       <c r="P29">
-        <v>0.02372300976234502</v>
+        <v>0.0351271476492263</v>
       </c>
       <c r="Q29">
-        <v>84.43408264554051</v>
+        <v>2857.429924195293</v>
       </c>
       <c r="R29">
-        <v>506.6044958732431</v>
+        <v>17144.57954517175</v>
       </c>
       <c r="S29">
-        <v>0.0006218679959381813</v>
+        <v>0.008977995091617686</v>
       </c>
       <c r="T29">
-        <v>0.0004349216326500098</v>
+        <v>0.006231296902582607</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.412457333333333</v>
+        <v>26.63589933333333</v>
       </c>
       <c r="N30">
-        <v>4.237372000000001</v>
+        <v>79.907698</v>
       </c>
       <c r="O30">
-        <v>0.009257805912788483</v>
+        <v>0.1679575032952993</v>
       </c>
       <c r="P30">
-        <v>0.009403445442602834</v>
+        <v>0.1718113747713226</v>
       </c>
       <c r="Q30">
-        <v>22.31226975012845</v>
+        <v>9317.370304607746</v>
       </c>
       <c r="R30">
-        <v>200.810427751156</v>
+        <v>83856.33274146971</v>
       </c>
       <c r="S30">
-        <v>0.0001643327675222551</v>
+        <v>0.02927501533921626</v>
       </c>
       <c r="T30">
-        <v>0.0001723964153538268</v>
+        <v>0.03047807064017573</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>78.64478033333334</v>
+        <v>46.52902066666667</v>
       </c>
       <c r="N31">
-        <v>235.934341</v>
+        <v>139.587062</v>
       </c>
       <c r="O31">
-        <v>0.5154691014005035</v>
+        <v>0.2933971946713588</v>
       </c>
       <c r="P31">
-        <v>0.5235782233964714</v>
+        <v>0.3001293445158418</v>
       </c>
       <c r="Q31">
-        <v>1242.333847420238</v>
+        <v>16276.08326780031</v>
       </c>
       <c r="R31">
-        <v>11181.00462678214</v>
+        <v>146484.7494102028</v>
       </c>
       <c r="S31">
-        <v>0.009149950301760022</v>
+        <v>0.05113917036136031</v>
       </c>
       <c r="T31">
-        <v>0.009598929394744523</v>
+        <v>0.0532407320267265</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.743911</v>
+        <v>2.5030855</v>
       </c>
       <c r="N32">
-        <v>3.487822</v>
+        <v>5.006171</v>
       </c>
       <c r="O32">
-        <v>0.01143028478536475</v>
+        <v>0.0157836604596468</v>
       </c>
       <c r="P32">
-        <v>0.007740067166750972</v>
+        <v>0.01076388312237861</v>
       </c>
       <c r="Q32">
-        <v>316.4873022142216</v>
+        <v>1344.817798992756</v>
       </c>
       <c r="R32">
-        <v>1898.92381328533</v>
+        <v>8068.906793956534</v>
       </c>
       <c r="S32">
-        <v>0.002330970127242029</v>
+        <v>0.004225394119464633</v>
       </c>
       <c r="T32">
-        <v>0.001630232364457108</v>
+        <v>0.002932690987255436</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.992690666666667</v>
+        <v>4.992690666666666</v>
       </c>
       <c r="N33">
         <v>14.978072</v>
       </c>
       <c r="O33">
-        <v>0.03272407603669718</v>
+        <v>0.03148231822792881</v>
       </c>
       <c r="P33">
-        <v>0.03323887609758527</v>
+        <v>0.03220469624520848</v>
       </c>
       <c r="Q33">
-        <v>906.0801840710088</v>
+        <v>2682.393099795569</v>
       </c>
       <c r="R33">
-        <v>8154.721656639079</v>
+        <v>24141.53789816012</v>
       </c>
       <c r="S33">
-        <v>0.006673398354939038</v>
+        <v>0.00842803243566362</v>
       </c>
       <c r="T33">
-        <v>0.007000855471285174</v>
+        <v>0.008774382009895984</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.43047966666666</v>
+        <v>69.75780233333334</v>
       </c>
       <c r="N34">
-        <v>181.291439</v>
+        <v>209.273407</v>
       </c>
       <c r="O34">
-        <v>0.3960853462740898</v>
+        <v>0.4398704984070624</v>
       </c>
       <c r="P34">
-        <v>0.4023163781342444</v>
+        <v>0.4499635536960222</v>
       </c>
       <c r="Q34">
-        <v>10967.00432603195</v>
+        <v>37478.35788928706</v>
       </c>
       <c r="R34">
-        <v>98703.03893428757</v>
+        <v>337305.2210035836</v>
       </c>
       <c r="S34">
-        <v>0.08077341267868993</v>
+        <v>0.1177563482214423</v>
       </c>
       <c r="T34">
-        <v>0.084736884868781</v>
+        <v>0.1225955395013751</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.3450205</v>
+        <v>8.168637</v>
       </c>
       <c r="N35">
-        <v>10.690041</v>
+        <v>16.337274</v>
       </c>
       <c r="O35">
-        <v>0.03503338559055635</v>
+        <v>0.0515088249387038</v>
       </c>
       <c r="P35">
-        <v>0.02372300976234502</v>
+        <v>0.0351271476492263</v>
       </c>
       <c r="Q35">
-        <v>970.0214737591024</v>
+        <v>4388.714820612715</v>
       </c>
       <c r="R35">
-        <v>5820.128842554614</v>
+        <v>26332.28892367629</v>
       </c>
       <c r="S35">
-        <v>0.007144334266482782</v>
+        <v>0.01378926558595031</v>
       </c>
       <c r="T35">
-        <v>0.004996599830947057</v>
+        <v>0.009570623180095638</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.412457333333333</v>
+        <v>26.63589933333333</v>
       </c>
       <c r="N36">
-        <v>4.237372000000001</v>
+        <v>79.907698</v>
       </c>
       <c r="O36">
-        <v>0.009257805912788483</v>
+        <v>0.1679575032952993</v>
       </c>
       <c r="P36">
-        <v>0.009403445442602834</v>
+        <v>0.1718113747713226</v>
       </c>
       <c r="Q36">
-        <v>256.3346471920644</v>
+        <v>14310.51057410781</v>
       </c>
       <c r="R36">
-        <v>2307.01182472858</v>
+        <v>128794.5951669703</v>
       </c>
       <c r="S36">
-        <v>0.001887938002572343</v>
+        <v>0.04496337516625724</v>
       </c>
       <c r="T36">
-        <v>0.001980577269896326</v>
+        <v>0.046811142834899</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>78.64478033333334</v>
+        <v>46.52902066666667</v>
       </c>
       <c r="N37">
-        <v>235.934341</v>
+        <v>139.587062</v>
       </c>
       <c r="O37">
-        <v>0.5154691014005035</v>
+        <v>0.2933971946713588</v>
       </c>
       <c r="P37">
-        <v>0.5235782233964714</v>
+        <v>0.3001293445158418</v>
       </c>
       <c r="Q37">
-        <v>14272.55998782434</v>
+        <v>24998.36907777825</v>
       </c>
       <c r="R37">
-        <v>128453.0398904191</v>
+        <v>224985.3217000042</v>
       </c>
       <c r="S37">
-        <v>0.1051192598822483</v>
+        <v>0.07854444057519477</v>
       </c>
       <c r="T37">
-        <v>0.1102773589320383</v>
+        <v>0.08177222045848327</v>
       </c>
     </row>
   </sheetData>
